--- a/acervo separado/Acervo_Fragmento_de_construcao.xlsx
+++ b/acervo separado/Acervo_Fragmento_de_construcao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B45326-AABF-47F0-99F5-834A6EB56FAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1307AC-203B-484A-A190-7AE30590FDA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$39</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$39</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -95,12 +102,6 @@
     <t>RT</t>
   </si>
   <si>
-    <t>Mármore</t>
-  </si>
-  <si>
-    <t>Talha/madeira</t>
-  </si>
-  <si>
     <t>S5</t>
   </si>
   <si>
@@ -116,9 +117,6 @@
     <t>Vitral com folhagem</t>
   </si>
   <si>
-    <t>Vidro/chumbo e ferro</t>
-  </si>
-  <si>
     <t>157,5 x 296,0 x 3,0 cm</t>
   </si>
   <si>
@@ -167,9 +165,6 @@
     <t>Vitral "ars"</t>
   </si>
   <si>
-    <t>Vidro/chumbo, ferro e madeira</t>
-  </si>
-  <si>
     <t>S3</t>
   </si>
   <si>
@@ -188,9 +183,6 @@
     <t>Porta com 4 vitrais</t>
   </si>
   <si>
-    <t>Metal/vitral</t>
-  </si>
-  <si>
     <t>190,5 x 84,5 x 4,5 cm</t>
   </si>
   <si>
@@ -645,6 +637,21 @@
   </si>
   <si>
     <t>46,0 cm</t>
+  </si>
+  <si>
+    <t>mattec_305</t>
+  </si>
+  <si>
+    <t>mattec_306</t>
+  </si>
+  <si>
+    <t>mattec_196</t>
+  </si>
+  <si>
+    <t>mattec_184</t>
+  </si>
+  <si>
+    <t>mattec_285</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1055,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,16 +1103,16 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -1126,16 +1133,16 @@
         <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="T1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="U1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1143,28 +1150,28 @@
         <v>1557</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -1185,13 +1192,13 @@
         <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="T2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1199,28 +1206,28 @@
         <v>1558</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -1241,10 +1248,10 @@
         <v>20</v>
       </c>
       <c r="T3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="U3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1252,28 +1259,28 @@
         <v>1559</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -1294,10 +1301,10 @@
         <v>20</v>
       </c>
       <c r="T4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="U4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1305,28 +1312,28 @@
         <v>1560</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -1347,10 +1354,10 @@
         <v>20</v>
       </c>
       <c r="T5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="U5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1358,28 +1365,28 @@
         <v>1561</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
@@ -1400,10 +1407,10 @@
         <v>20</v>
       </c>
       <c r="T6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="U6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1411,28 +1418,28 @@
         <v>1562</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1453,10 +1460,10 @@
         <v>20</v>
       </c>
       <c r="T7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="U7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1464,28 +1471,28 @@
         <v>1563</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -1506,10 +1513,10 @@
         <v>20</v>
       </c>
       <c r="T8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="U8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1517,28 +1524,28 @@
         <v>1564</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -1547,7 +1554,7 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
@@ -1559,10 +1566,10 @@
         <v>20</v>
       </c>
       <c r="T9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="U9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1570,28 +1577,28 @@
         <v>1565</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -1600,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -1612,10 +1619,10 @@
         <v>20</v>
       </c>
       <c r="T10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="U10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1623,22 +1630,22 @@
         <v>1404</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -1647,7 +1654,7 @@
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
@@ -1659,13 +1666,13 @@
         <v>20</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="T11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1673,28 +1680,28 @@
         <v>3623</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -1703,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
         <v>17</v>
@@ -1715,13 +1722,13 @@
         <v>20</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1729,28 +1736,28 @@
         <v>3624</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
@@ -1759,7 +1766,7 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -1771,13 +1778,13 @@
         <v>20</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="T13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1785,28 +1792,28 @@
         <v>3625</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
@@ -1815,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
         <v>17</v>
@@ -1827,13 +1834,13 @@
         <v>20</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="T14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1841,28 +1848,28 @@
         <v>3626</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
@@ -1871,7 +1878,7 @@
         <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
         <v>17</v>
@@ -1883,13 +1890,13 @@
         <v>20</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="T15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1897,28 +1904,28 @@
         <v>3627</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -1927,7 +1934,7 @@
         <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
         <v>17</v>
@@ -1939,13 +1946,13 @@
         <v>20</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="T16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1953,28 +1960,28 @@
         <v>3628</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
         <v>15</v>
@@ -1983,7 +1990,7 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
         <v>17</v>
@@ -1995,13 +2002,13 @@
         <v>20</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="T17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2009,28 +2016,28 @@
         <v>3629</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
         <v>15</v>
@@ -2039,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
@@ -2051,13 +2058,13 @@
         <v>20</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="T18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2065,28 +2072,28 @@
         <v>3630</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -2095,7 +2102,7 @@
         <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
@@ -2107,10 +2114,10 @@
         <v>20</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="T19" t="s">
         <v>21</v>
@@ -2121,28 +2128,28 @@
         <v>3631</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -2151,7 +2158,7 @@
         <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
         <v>17</v>
@@ -2163,13 +2170,13 @@
         <v>20</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="T20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2177,28 +2184,28 @@
         <v>3632</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -2207,7 +2214,7 @@
         <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M21" t="s">
         <v>17</v>
@@ -2219,13 +2226,13 @@
         <v>20</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="T21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2233,28 +2240,28 @@
         <v>3633</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
@@ -2263,7 +2270,7 @@
         <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
@@ -2275,13 +2282,13 @@
         <v>20</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="T22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2289,28 +2296,28 @@
         <v>3634</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -2319,7 +2326,7 @@
         <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
         <v>17</v>
@@ -2331,13 +2338,13 @@
         <v>20</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="T23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2345,28 +2352,28 @@
         <v>3635</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
@@ -2375,7 +2382,7 @@
         <v>16</v>
       </c>
       <c r="L24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
         <v>17</v>
@@ -2387,13 +2394,13 @@
         <v>20</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="T24" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2401,28 +2408,28 @@
         <v>3637</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s">
         <v>15</v>
@@ -2431,7 +2438,7 @@
         <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M25" t="s">
         <v>19</v>
@@ -2443,13 +2450,13 @@
         <v>20</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T25" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2457,28 +2464,28 @@
         <v>3638</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
         <v>15</v>
@@ -2487,7 +2494,7 @@
         <v>16</v>
       </c>
       <c r="L26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s">
         <v>19</v>
@@ -2499,13 +2506,13 @@
         <v>20</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T26" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2513,28 +2520,28 @@
         <v>3639</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s">
         <v>15</v>
@@ -2543,7 +2550,7 @@
         <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M27" t="s">
         <v>19</v>
@@ -2555,13 +2562,13 @@
         <v>20</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="T27" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2569,28 +2576,28 @@
         <v>3640</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
         <v>15</v>
@@ -2599,7 +2606,7 @@
         <v>16</v>
       </c>
       <c r="L28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M28" t="s">
         <v>19</v>
@@ -2611,13 +2618,13 @@
         <v>20</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="T28" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2625,28 +2632,28 @@
         <v>3641</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -2655,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
@@ -2667,13 +2674,13 @@
         <v>20</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="T29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2681,28 +2688,28 @@
         <v>3642</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -2711,7 +2718,7 @@
         <v>16</v>
       </c>
       <c r="L30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
@@ -2723,13 +2730,13 @@
         <v>20</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="T30" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2737,28 +2744,28 @@
         <v>3643</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -2767,7 +2774,7 @@
         <v>16</v>
       </c>
       <c r="L31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
@@ -2779,13 +2786,13 @@
         <v>20</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="T31" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2793,28 +2800,28 @@
         <v>3644</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -2823,7 +2830,7 @@
         <v>16</v>
       </c>
       <c r="L32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M32" t="s">
         <v>19</v>
@@ -2835,13 +2842,13 @@
         <v>20</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T32" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -2849,28 +2856,28 @@
         <v>3645</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -2879,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M33" t="s">
         <v>19</v>
@@ -2891,13 +2898,13 @@
         <v>20</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="T33" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -2905,28 +2912,28 @@
         <v>3646</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
@@ -2935,7 +2942,7 @@
         <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M34" t="s">
         <v>19</v>
@@ -2947,13 +2954,13 @@
         <v>20</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="T34" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -2961,28 +2968,28 @@
         <v>3647</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -2991,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M35" t="s">
         <v>19</v>
@@ -3003,13 +3010,13 @@
         <v>20</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="T35" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -3017,28 +3024,28 @@
         <v>3648</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I36" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -3047,7 +3054,7 @@
         <v>16</v>
       </c>
       <c r="L36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M36" t="s">
         <v>19</v>
@@ -3059,13 +3066,13 @@
         <v>20</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="T36" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3073,28 +3080,28 @@
         <v>3654</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I37" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J37" t="s">
         <v>15</v>
@@ -3103,7 +3110,7 @@
         <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M37" t="s">
         <v>19</v>
@@ -3115,13 +3122,13 @@
         <v>20</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="T37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3129,28 +3136,28 @@
         <v>3655</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J38" t="s">
         <v>15</v>
@@ -3159,7 +3166,7 @@
         <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M38" t="s">
         <v>19</v>
@@ -3171,13 +3178,13 @@
         <v>20</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="T38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3185,28 +3192,28 @@
         <v>3656</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J39" t="s">
         <v>15</v>
@@ -3215,7 +3222,7 @@
         <v>16</v>
       </c>
       <c r="L39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M39" t="s">
         <v>19</v>
@@ -3227,13 +3234,13 @@
         <v>20</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="T39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
